--- a/Data Files/data_work_example.xlsx
+++ b/Data Files/data_work_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshatdhir/Repositories/pectus_data_transform/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshatdhir/Repositories/pectus_data_transform/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD2390A-C6BA-774F-A089-DDE39F967BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884CD285-B5AE-BA4E-953A-AA55787D33D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{669C2DF5-7C29-8346-9A88-211B85899BEB}"/>
   </bookViews>
@@ -490,12 +490,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E068004-25AA-514E-A54F-29AD2345CE8C}">
   <dimension ref="A1:AZ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:AZ95"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
   </cols>
